--- a/stats/Homework#4/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/stats/Homework#4/BoxOffice - Data Retrieval Protocol.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="12" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eti!$A$1:$AA$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eti!$A$1:$AA$61</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="100">
   <si>
     <t>Feature name</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>movie_id</t>
-  </si>
-  <si>
     <t>dbo.movies_ff_v</t>
   </si>
   <si>
@@ -74,15 +71,9 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>budget</t>
-  </si>
-  <si>
     <t>Leave</t>
   </si>
   <si>
-    <t>original_language</t>
-  </si>
-  <si>
     <t>Categorical</t>
   </si>
   <si>
@@ -98,15 +89,9 @@
     <t>Varchar</t>
   </si>
   <si>
-    <t>popularity</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
-    <t>release_date</t>
-  </si>
-  <si>
     <t>Interval</t>
   </si>
   <si>
@@ -119,258 +104,18 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>runtime</t>
-  </si>
-  <si>
     <t>Ordinal</t>
   </si>
   <si>
-    <t>runtime_cat</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>revenue</t>
-  </si>
-  <si>
-    <t>sw_lang_en</t>
-  </si>
-  <si>
     <t>Truncate</t>
   </si>
   <si>
-    <t>sw_web_presence</t>
-  </si>
-  <si>
-    <t>sw_has_poster</t>
-  </si>
-  <si>
-    <t>sw_tagline</t>
-  </si>
-  <si>
-    <t>release_year</t>
-  </si>
-  <si>
-    <t>release_month</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
-    <t>high_release_month</t>
-  </si>
-  <si>
-    <t>release_day</t>
-  </si>
-  <si>
-    <t>seasonality</t>
-  </si>
-  <si>
-    <t>sw_collection</t>
-  </si>
-  <si>
     <t>Categorize</t>
   </si>
   <si>
-    <t>producers_cnt</t>
-  </si>
-  <si>
-    <t>countries_cnt</t>
-  </si>
-  <si>
-    <t>lang_US</t>
-  </si>
-  <si>
-    <t>lang_FR</t>
-  </si>
-  <si>
-    <t>lang_RU</t>
-  </si>
-  <si>
-    <t>lang_ES</t>
-  </si>
-  <si>
-    <t>lang_JA</t>
-  </si>
-  <si>
-    <t>keywords_cnt</t>
-  </si>
-  <si>
-    <t>actor0_movies_cnt</t>
-  </si>
-  <si>
-    <t>actor0_movies_5y_cnt</t>
-  </si>
-  <si>
-    <t>actor1_movies_cnt</t>
-  </si>
-  <si>
-    <t>actor1_movies_5y_cnt</t>
-  </si>
-  <si>
-    <t>actor2_movies_cnt</t>
-  </si>
-  <si>
-    <t>actor2_movies_5y_cnt</t>
-  </si>
-  <si>
-    <t>sw_female_actor0</t>
-  </si>
-  <si>
-    <t>sw_female_actor1</t>
-  </si>
-  <si>
-    <t>sw_female_actor2</t>
-  </si>
-  <si>
-    <t>sw_male_actor0</t>
-  </si>
-  <si>
-    <t>sw_male_actor1</t>
-  </si>
-  <si>
-    <t>sw_male_actor2</t>
-  </si>
-  <si>
-    <t>actor0_prev_revenue</t>
-  </si>
-  <si>
-    <t>actor1_prev_revenue</t>
-  </si>
-  <si>
-    <t>actor2_prev_revenue</t>
-  </si>
-  <si>
-    <t>director_movies_cnt</t>
-  </si>
-  <si>
-    <t>director_movies_5y_cnt</t>
-  </si>
-  <si>
-    <t>genre_adventure</t>
-  </si>
-  <si>
-    <t>genre_fantasy</t>
-  </si>
-  <si>
-    <t>genre_animation</t>
-  </si>
-  <si>
-    <t>genre_drama</t>
-  </si>
-  <si>
-    <t>genre_horror</t>
-  </si>
-  <si>
-    <t>genre_action</t>
-  </si>
-  <si>
-    <t>genre_comedy</t>
-  </si>
-  <si>
-    <t>genre_history</t>
-  </si>
-  <si>
-    <t>genre_western</t>
-  </si>
-  <si>
-    <t>genre_thriller</t>
-  </si>
-  <si>
-    <t>genre_crime</t>
-  </si>
-  <si>
-    <t>genre_documentary</t>
-  </si>
-  <si>
-    <t>genre_science_fiction</t>
-  </si>
-  <si>
-    <t>genre_mystery</t>
-  </si>
-  <si>
-    <t>genre_music</t>
-  </si>
-  <si>
-    <t>genre_romance</t>
-  </si>
-  <si>
-    <t>genre_family</t>
-  </si>
-  <si>
-    <t>genre_war</t>
-  </si>
-  <si>
-    <t>genre_foreign</t>
-  </si>
-  <si>
-    <t>depart_Art</t>
-  </si>
-  <si>
-    <t>depart_Camera</t>
-  </si>
-  <si>
-    <t>depart_Crew</t>
-  </si>
-  <si>
-    <t>depart_Custom_Mkup</t>
-  </si>
-  <si>
-    <t>depart_Directing</t>
-  </si>
-  <si>
-    <t>depart_Editing</t>
-  </si>
-  <si>
-    <t>depart_Lighting</t>
-  </si>
-  <si>
-    <t>depart_Production</t>
-  </si>
-  <si>
-    <t>depart_Sound</t>
-  </si>
-  <si>
-    <t>depart_Visual_Effects</t>
-  </si>
-  <si>
-    <t>depart_Writing</t>
-  </si>
-  <si>
-    <t>depart_Art_female</t>
-  </si>
-  <si>
-    <t>depart_Camera_female</t>
-  </si>
-  <si>
-    <t>depart_Crew_female</t>
-  </si>
-  <si>
-    <t>depart_Custom_Mkup_female</t>
-  </si>
-  <si>
-    <t>depart_Directing_female</t>
-  </si>
-  <si>
-    <t>depart_Editing_female</t>
-  </si>
-  <si>
-    <t>depart_Lighting_female</t>
-  </si>
-  <si>
-    <t>depart_Production_female</t>
-  </si>
-  <si>
-    <t>depart_Sound_female</t>
-  </si>
-  <si>
-    <t>depart_Visual_Effects_female</t>
-  </si>
-  <si>
-    <t>depart_Writing_female</t>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -392,10 +137,187 @@
     <t>Space</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>cloumn range</t>
+  </si>
+  <si>
+    <t>Client_Code</t>
+  </si>
+  <si>
+    <t>Booking_Date</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>time_booked</t>
+  </si>
+  <si>
+    <t>cancel_days</t>
+  </si>
+  <si>
+    <t>NoShow</t>
+  </si>
+  <si>
+    <t>service_CAL</t>
+  </si>
+  <si>
+    <t>service_CALC</t>
+  </si>
+  <si>
+    <t>service_CAS</t>
+  </si>
+  <si>
+    <t>service_CBAL</t>
+  </si>
+  <si>
+    <t>service_CCAMO</t>
+  </si>
+  <si>
+    <t>service_CCO</t>
+  </si>
+  <si>
+    <t>service_CDPB</t>
+  </si>
+  <si>
+    <t>service_CFC</t>
+  </si>
+  <si>
+    <t>service_CHLFH</t>
+  </si>
+  <si>
+    <t>service_CHLFHC</t>
+  </si>
+  <si>
+    <t>service_CHLHH</t>
+  </si>
+  <si>
+    <t>service_CHLHHC</t>
+  </si>
+  <si>
+    <t>service_CHLPHC</t>
+  </si>
+  <si>
+    <t>service_CHLPL</t>
+  </si>
+  <si>
+    <t>service_CMT</t>
+  </si>
+  <si>
+    <t>service_CON</t>
+  </si>
+  <si>
+    <t>service_CT</t>
+  </si>
+  <si>
+    <t>service_CTU</t>
+  </si>
+  <si>
+    <t>service_EXT</t>
+  </si>
+  <si>
+    <t>service_FF</t>
+  </si>
+  <si>
+    <t>service_FRI</t>
+  </si>
+  <si>
+    <t>service_MISC</t>
+  </si>
+  <si>
+    <t>service_NECK</t>
+  </si>
+  <si>
+    <t>service_SBD</t>
+  </si>
+  <si>
+    <t>service_SBD5</t>
+  </si>
+  <si>
+    <t>service_SDUD</t>
+  </si>
+  <si>
+    <t>service_SHCC</t>
+  </si>
+  <si>
+    <t>service_SHCM</t>
+  </si>
+  <si>
+    <t>service_SHCW</t>
+  </si>
+  <si>
+    <t>service_SMARTBOND</t>
+  </si>
+  <si>
+    <t>service_SMO</t>
+  </si>
+  <si>
+    <t>service_SSUD</t>
+  </si>
+  <si>
+    <t>staff_BECKY</t>
+  </si>
+  <si>
+    <t>staff_HOUSE</t>
+  </si>
+  <si>
+    <t>staff_JJ</t>
+  </si>
+  <si>
+    <t>staff_JOANNE</t>
+  </si>
+  <si>
+    <t>staff_KELLY</t>
+  </si>
+  <si>
+    <t>staff_SINEAD</t>
+  </si>
+  <si>
+    <t>Canceled_By_BECKY</t>
+  </si>
+  <si>
+    <t>Canceled_By_HOUSE</t>
+  </si>
+  <si>
+    <t>Canceled_By_JJ</t>
+  </si>
+  <si>
+    <t>Canceled_By_JOANNE</t>
+  </si>
+  <si>
+    <t>Canceled_By_KELLY</t>
+  </si>
+  <si>
+    <t>Canceled_By_SINEAD</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>avg_receipt</t>
+  </si>
+  <si>
+    <t>avg_quantity</t>
+  </si>
+  <si>
+    <t>total_cancel12</t>
   </si>
 </sst>
 </file>
@@ -403,7 +325,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -450,6 +372,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -503,11 +426,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,12 +457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -844,13 +769,13 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA998"/>
+  <dimension ref="A1:AA964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L85" sqref="L85"/>
+      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -868,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -928,367 +853,364 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" s="12">
-        <v>7375</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="12">
-        <v>7398</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="12">
+        <v>160</v>
+      </c>
+      <c r="J3" s="14">
+        <v>43173</v>
+      </c>
+      <c r="K3" s="14">
+        <v>43511</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="12">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G4" s="12">
-        <v>4697</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="12">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G6" s="12">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="J6" s="12">
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>338</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12">
-        <v>704</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>124</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="J7" s="12">
         <v>0</v>
       </c>
-      <c r="K7" s="13">
-        <v>380000000</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G8" s="12">
-        <v>7371</v>
+        <v>2</v>
       </c>
       <c r="J8" s="12">
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>547.48800000000006</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12">
-        <v>2845</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="12">
+        <v>71</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="12">
+        <v>31</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-37</v>
+      </c>
+      <c r="K11" s="12">
+        <v>66</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12">
-        <v>2</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G12" s="12">
         <v>2</v>
@@ -1299,32 +1221,31 @@
       <c r="K12" s="12">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
-        <v>11</v>
+      <c r="L12" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G13" s="12">
         <v>2</v>
@@ -1335,104 +1256,101 @@
       <c r="K13" s="12">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
-        <v>11</v>
+      <c r="L13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="12">
-        <v>99</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1918</v>
-      </c>
-      <c r="K14" s="12">
-        <v>2017</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="12">
-        <v>13</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
-      </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G16" s="12">
         <v>2</v>
@@ -1443,212 +1361,206 @@
       <c r="K16" s="12">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>39</v>
+      <c r="L16" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="12">
-        <v>32</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12">
-        <v>31</v>
-      </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18" s="12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J18" s="12">
-        <v>-50746591</v>
+        <v>0</v>
       </c>
       <c r="K18" s="12">
-        <v>74205073</v>
-      </c>
-      <c r="L18" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G19" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
       <c r="K19" s="12">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="12">
-        <v>25</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
       <c r="M20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
       </c>
       <c r="K21" s="12">
-        <v>12</v>
-      </c>
-      <c r="L21" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G22" s="12">
         <v>2</v>
@@ -1659,32 +1571,31 @@
       <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
-        <v>39</v>
+      <c r="L22" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G23" s="12">
         <v>2</v>
@@ -1695,32 +1606,31 @@
       <c r="K23" s="12">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
-        <v>39</v>
+      <c r="L23" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G24" s="12">
         <v>2</v>
@@ -1731,32 +1641,31 @@
       <c r="K24" s="12">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
-        <v>39</v>
+      <c r="L24" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G25" s="12">
         <v>2</v>
@@ -1767,32 +1676,31 @@
       <c r="K25" s="12">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>39</v>
+      <c r="L25" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G26" s="12">
         <v>2</v>
@@ -1803,287 +1711,279 @@
       <c r="K26" s="12">
         <v>1</v>
       </c>
-      <c r="L26" t="s">
-        <v>39</v>
+      <c r="L26" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J27" s="12">
         <v>0</v>
       </c>
       <c r="K27" s="12">
-        <v>149</v>
-      </c>
-      <c r="L27" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="12">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="J28" s="12">
         <v>0</v>
       </c>
       <c r="K28" s="12">
-        <v>65</v>
-      </c>
-      <c r="L28" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J29" s="12">
         <v>0</v>
       </c>
       <c r="K29" s="12">
-        <v>16</v>
-      </c>
-      <c r="L29" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="12">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="J30" s="12">
         <v>0</v>
       </c>
       <c r="K30" s="12">
-        <v>67</v>
-      </c>
-      <c r="L30" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="12">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J31" s="12">
         <v>0</v>
       </c>
       <c r="K31" s="12">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L31" t="s">
-        <v>11</v>
-      </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="12">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J32" s="12">
         <v>0</v>
       </c>
       <c r="K32" s="12">
-        <v>68</v>
-      </c>
-      <c r="L32" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="12">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J33" s="12">
         <v>0</v>
       </c>
       <c r="K33" s="12">
-        <v>15</v>
-      </c>
-      <c r="L33" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G34" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" s="12">
         <v>0</v>
@@ -2091,35 +1991,34 @@
       <c r="K34" s="12">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
-        <v>39</v>
+      <c r="L34" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G35" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" s="12">
         <v>0</v>
@@ -2127,35 +2026,34 @@
       <c r="K35" s="12">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
-        <v>39</v>
+      <c r="L35" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G36" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
@@ -2163,35 +2061,34 @@
       <c r="K36" s="12">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
-        <v>39</v>
+      <c r="L36" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G37" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="12">
         <v>0</v>
@@ -2199,35 +2096,34 @@
       <c r="K37" s="12">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
-        <v>39</v>
+      <c r="L37" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" s="12">
         <v>0</v>
@@ -2235,35 +2131,34 @@
       <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
-        <v>39</v>
+      <c r="L38" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G39" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="12">
         <v>0</v>
@@ -2271,212 +2166,206 @@
       <c r="K39" s="12">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
-        <v>39</v>
+      <c r="L39" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="12">
+        <v>2</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="12">
-        <v>1152</v>
-      </c>
-      <c r="J40" s="12">
-        <v>1</v>
-      </c>
-      <c r="K40" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="L40" t="s">
-        <v>11</v>
-      </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="12">
-        <v>1265</v>
-      </c>
-      <c r="J41" s="12">
-        <v>1</v>
-      </c>
-      <c r="K41" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="L41" t="s">
-        <v>11</v>
-      </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="12">
+        <v>2</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="12">
-        <v>1341</v>
-      </c>
-      <c r="J42" s="12">
-        <v>1</v>
-      </c>
-      <c r="K42" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="L42" t="s">
-        <v>11</v>
-      </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="12">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J43" s="12">
         <v>0</v>
       </c>
       <c r="K43" s="12">
-        <v>29</v>
-      </c>
-      <c r="L43" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G44" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J44" s="12">
         <v>0</v>
       </c>
       <c r="K44" s="12">
-        <v>6</v>
-      </c>
-      <c r="L44" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G45" s="12">
         <v>2</v>
@@ -2487,32 +2376,31 @@
       <c r="K45" s="12">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
-        <v>39</v>
+      <c r="L45" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G46" s="12">
         <v>2</v>
@@ -2523,32 +2411,31 @@
       <c r="K46" s="12">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
-        <v>39</v>
+      <c r="L46" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G47" s="12">
         <v>2</v>
@@ -2559,32 +2446,31 @@
       <c r="K47" s="12">
         <v>1</v>
       </c>
-      <c r="L47" t="s">
-        <v>39</v>
+      <c r="L47" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G48" s="12">
         <v>2</v>
@@ -2595,32 +2481,31 @@
       <c r="K48" s="12">
         <v>1</v>
       </c>
-      <c r="L48" t="s">
-        <v>39</v>
+      <c r="L48" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G49" s="12">
         <v>2</v>
@@ -2631,32 +2516,31 @@
       <c r="K49" s="12">
         <v>1</v>
       </c>
-      <c r="L49" t="s">
-        <v>39</v>
+      <c r="L49" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G50" s="12">
         <v>2</v>
@@ -2667,32 +2551,31 @@
       <c r="K50" s="12">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
-        <v>39</v>
+      <c r="L50" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G51" s="12">
         <v>2</v>
@@ -2703,32 +2586,31 @@
       <c r="K51" s="12">
         <v>1</v>
       </c>
-      <c r="L51" t="s">
-        <v>39</v>
+      <c r="L51" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G52" s="12">
         <v>2</v>
@@ -2739,32 +2621,31 @@
       <c r="K52" s="12">
         <v>1</v>
       </c>
-      <c r="L52" t="s">
-        <v>39</v>
+      <c r="L52" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G53" s="12">
         <v>2</v>
@@ -2775,32 +2656,31 @@
       <c r="K53" s="12">
         <v>1</v>
       </c>
-      <c r="L53" t="s">
-        <v>39</v>
+      <c r="L53" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G54" s="12">
         <v>2</v>
@@ -2811,32 +2691,31 @@
       <c r="K54" s="12">
         <v>1</v>
       </c>
-      <c r="L54" t="s">
-        <v>39</v>
+      <c r="L54" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G55" s="12">
         <v>2</v>
@@ -2847,32 +2726,31 @@
       <c r="K55" s="12">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
-        <v>39</v>
+      <c r="L55" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="G56" s="12">
         <v>2</v>
@@ -2883,1108 +2761,359 @@
       <c r="K56" s="12">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
-        <v>39</v>
+      <c r="L56" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G57" s="12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J57" s="12">
         <v>0</v>
       </c>
       <c r="K57" s="12">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G58" s="12">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="J58" s="12">
         <v>0</v>
       </c>
       <c r="K58" s="12">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>39</v>
+        <v>382.8</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>90</v>
+      <c r="B59" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G59" s="12">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="J59" s="12">
         <v>0</v>
       </c>
       <c r="K59" s="12">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G60" s="12">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="J60" s="12">
         <v>0</v>
       </c>
       <c r="K60" s="12">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G61" s="12">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="J61" s="12">
         <v>0</v>
       </c>
       <c r="K61" s="12">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>39</v>
+        <v>90</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="12">
-        <v>2</v>
-      </c>
-      <c r="J62" s="12">
-        <v>0</v>
-      </c>
-      <c r="K62" s="12">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>39</v>
-      </c>
-      <c r="M62" t="s">
-        <v>24</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="12">
-        <v>2</v>
-      </c>
-      <c r="J63" s="12">
-        <v>0</v>
-      </c>
-      <c r="K63" s="12">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>39</v>
-      </c>
-      <c r="M63" t="s">
-        <v>24</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="12">
-        <v>35</v>
-      </c>
-      <c r="J64" s="12">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12">
-        <v>36</v>
-      </c>
-      <c r="L64" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="12">
-        <v>24</v>
-      </c>
-      <c r="J65" s="12">
-        <v>0</v>
-      </c>
-      <c r="K65" s="12">
-        <v>24</v>
-      </c>
-      <c r="L65" t="s">
-        <v>11</v>
-      </c>
-      <c r="M65" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="12">
-        <v>51</v>
-      </c>
-      <c r="J66" s="12">
-        <v>0</v>
-      </c>
-      <c r="K66" s="12">
-        <v>119</v>
-      </c>
-      <c r="L66" t="s">
-        <v>11</v>
-      </c>
-      <c r="M66" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="12">
-        <v>28</v>
-      </c>
-      <c r="J67" s="12">
-        <v>0</v>
-      </c>
-      <c r="K67" s="12">
-        <v>33</v>
-      </c>
-      <c r="L67" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" ref="A68:A85" si="1">A67+1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="12">
-        <v>24</v>
-      </c>
-      <c r="J68" s="12">
-        <v>0</v>
-      </c>
-      <c r="K68" s="12">
-        <v>30</v>
-      </c>
-      <c r="L68" t="s">
-        <v>11</v>
-      </c>
-      <c r="M68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="12">
-        <v>17</v>
-      </c>
-      <c r="J69" s="12">
-        <v>0</v>
-      </c>
-      <c r="K69" s="12">
-        <v>21</v>
-      </c>
-      <c r="L69" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" s="12">
-        <v>14</v>
-      </c>
-      <c r="J70" s="12">
-        <v>0</v>
-      </c>
-      <c r="K70" s="12">
-        <v>18</v>
-      </c>
-      <c r="L70" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="12">
-        <v>38</v>
-      </c>
-      <c r="J71" s="12">
-        <v>0</v>
-      </c>
-      <c r="K71" s="12">
-        <v>38</v>
-      </c>
-      <c r="L71" t="s">
-        <v>11</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="12">
-        <v>35</v>
-      </c>
-      <c r="J72" s="12">
-        <v>0</v>
-      </c>
-      <c r="K72" s="12">
-        <v>40</v>
-      </c>
-      <c r="L72" t="s">
-        <v>11</v>
-      </c>
-      <c r="M72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="12">
-        <v>46</v>
-      </c>
-      <c r="J73" s="12">
-        <v>0</v>
-      </c>
-      <c r="K73" s="12">
-        <v>89</v>
-      </c>
-      <c r="L73" t="s">
-        <v>11</v>
-      </c>
-      <c r="M73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" s="12">
-        <v>21</v>
-      </c>
-      <c r="J74" s="12">
-        <v>0</v>
-      </c>
-      <c r="K74" s="12">
-        <v>23</v>
-      </c>
-      <c r="L74" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="12">
-        <v>9</v>
-      </c>
-      <c r="J75" s="12">
-        <v>0</v>
-      </c>
-      <c r="K75" s="12">
-        <v>7</v>
-      </c>
-      <c r="L75" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="12">
-        <v>5</v>
-      </c>
-      <c r="J76" s="12">
-        <v>0</v>
-      </c>
-      <c r="K76" s="12">
-        <v>3</v>
-      </c>
-      <c r="L76" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="12">
-        <v>9</v>
-      </c>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" s="12">
-        <v>10</v>
-      </c>
-      <c r="L77" t="s">
-        <v>11</v>
-      </c>
-      <c r="M77" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="12">
-        <v>8</v>
-      </c>
-      <c r="J78" s="12">
-        <v>0</v>
-      </c>
-      <c r="K78" s="12">
-        <v>6</v>
-      </c>
-      <c r="L78" t="s">
-        <v>11</v>
-      </c>
-      <c r="M78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="12">
-        <v>6</v>
-      </c>
-      <c r="J79" s="12">
-        <v>0</v>
-      </c>
-      <c r="K79" s="12">
-        <v>4</v>
-      </c>
-      <c r="L79" t="s">
-        <v>11</v>
-      </c>
-      <c r="M79" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="12">
-        <v>6</v>
-      </c>
-      <c r="J80" s="12">
-        <v>0</v>
-      </c>
-      <c r="K80" s="12">
-        <v>5</v>
-      </c>
-      <c r="L80" t="s">
-        <v>11</v>
-      </c>
-      <c r="M80" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="12">
-        <v>3</v>
-      </c>
-      <c r="J81" s="12">
-        <v>0</v>
-      </c>
-      <c r="K81" s="12">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>11</v>
-      </c>
-      <c r="M81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="12">
-        <v>13</v>
-      </c>
-      <c r="J82" s="12">
-        <v>0</v>
-      </c>
-      <c r="K82" s="12">
-        <v>12</v>
-      </c>
-      <c r="L82" t="s">
-        <v>11</v>
-      </c>
-      <c r="M82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="12">
-        <v>7</v>
-      </c>
-      <c r="J83" s="12">
-        <v>0</v>
-      </c>
-      <c r="K83" s="12">
-        <v>6</v>
-      </c>
-      <c r="L83" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="12">
-        <v>4</v>
-      </c>
-      <c r="J84" s="12">
-        <v>0</v>
-      </c>
-      <c r="K84" s="12">
-        <v>2</v>
-      </c>
-      <c r="L84" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="12">
-        <v>7</v>
-      </c>
-      <c r="J85" s="12">
-        <v>0</v>
-      </c>
-      <c r="K85" s="12">
-        <v>5</v>
-      </c>
-      <c r="L85" t="s">
-        <v>11</v>
-      </c>
-      <c r="M85" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -8324,183 +7453,13 @@
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
     </row>
-    <row r="964" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
     </row>
-    <row r="965" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B965" s="5"/>
-      <c r="C965" s="5"/>
-      <c r="D965" s="5"/>
-    </row>
-    <row r="966" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B966" s="5"/>
-      <c r="C966" s="5"/>
-      <c r="D966" s="5"/>
-    </row>
-    <row r="967" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B967" s="5"/>
-      <c r="C967" s="5"/>
-      <c r="D967" s="5"/>
-    </row>
-    <row r="968" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B968" s="5"/>
-      <c r="C968" s="5"/>
-      <c r="D968" s="5"/>
-    </row>
-    <row r="969" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B969" s="5"/>
-      <c r="C969" s="5"/>
-      <c r="D969" s="5"/>
-    </row>
-    <row r="970" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B970" s="5"/>
-      <c r="C970" s="5"/>
-      <c r="D970" s="5"/>
-    </row>
-    <row r="971" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B971" s="5"/>
-      <c r="C971" s="5"/>
-      <c r="D971" s="5"/>
-    </row>
-    <row r="972" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B972" s="5"/>
-      <c r="C972" s="5"/>
-      <c r="D972" s="5"/>
-    </row>
-    <row r="973" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B973" s="5"/>
-      <c r="C973" s="5"/>
-      <c r="D973" s="5"/>
-    </row>
-    <row r="974" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B974" s="5"/>
-      <c r="C974" s="5"/>
-      <c r="D974" s="5"/>
-    </row>
-    <row r="975" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B975" s="5"/>
-      <c r="C975" s="5"/>
-      <c r="D975" s="5"/>
-    </row>
-    <row r="976" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B976" s="5"/>
-      <c r="C976" s="5"/>
-      <c r="D976" s="5"/>
-    </row>
-    <row r="977" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B977" s="5"/>
-      <c r="C977" s="5"/>
-      <c r="D977" s="5"/>
-    </row>
-    <row r="978" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B978" s="5"/>
-      <c r="C978" s="5"/>
-      <c r="D978" s="5"/>
-    </row>
-    <row r="979" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B979" s="5"/>
-      <c r="C979" s="5"/>
-      <c r="D979" s="5"/>
-    </row>
-    <row r="980" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B980" s="5"/>
-      <c r="C980" s="5"/>
-      <c r="D980" s="5"/>
-    </row>
-    <row r="981" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B981" s="5"/>
-      <c r="C981" s="5"/>
-      <c r="D981" s="5"/>
-    </row>
-    <row r="982" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B982" s="5"/>
-      <c r="C982" s="5"/>
-      <c r="D982" s="5"/>
-    </row>
-    <row r="983" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B983" s="5"/>
-      <c r="C983" s="5"/>
-      <c r="D983" s="5"/>
-    </row>
-    <row r="984" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B984" s="5"/>
-      <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
-    </row>
-    <row r="985" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B985" s="5"/>
-      <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
-    </row>
-    <row r="986" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B986" s="5"/>
-      <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
-    </row>
-    <row r="987" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B987" s="5"/>
-      <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
-    </row>
-    <row r="988" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B988" s="5"/>
-      <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
-    </row>
-    <row r="989" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B989" s="5"/>
-      <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
-    </row>
-    <row r="990" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B990" s="5"/>
-      <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
-    </row>
-    <row r="991" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B991" s="5"/>
-      <c r="C991" s="5"/>
-      <c r="D991" s="5"/>
-    </row>
-    <row r="992" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B992" s="5"/>
-      <c r="C992" s="5"/>
-      <c r="D992" s="5"/>
-    </row>
-    <row r="993" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B993" s="5"/>
-      <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
-    </row>
-    <row r="994" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B994" s="5"/>
-      <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
-    </row>
-    <row r="995" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B995" s="5"/>
-      <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
-    </row>
-    <row r="996" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-    </row>
-    <row r="997" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B997" s="5"/>
-      <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
-    </row>
-    <row r="998" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B998" s="5"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AA85"/>
+  <autoFilter ref="A1:AA61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -8510,25 +7469,25 @@
           <x14:formula1>
             <xm:f>Sheet2!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L997</xm:sqref>
+          <xm:sqref>L2:L963</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:M997</xm:sqref>
+          <xm:sqref>M1:M963</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F997</xm:sqref>
+          <xm:sqref>F2:F963</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D998</xm:sqref>
+          <xm:sqref>D2:D964</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8549,7 +7508,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -8561,38 +7520,38 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -8600,69 +7559,69 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
